--- a/tree.xlsx
+++ b/tree.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\wagner\PRODS\wagner-tdbax.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C669827-1535-44D5-BFA4-5A10F4023A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3007A1F4-7A01-45F5-83F6-2601126E2897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,746 +25,812 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="256">
+  <si>
+    <t>├── _config.yml</t>
+  </si>
+  <si>
+    <t>├── _config.yml.original</t>
+  </si>
+  <si>
+    <t>├── _includes</t>
+  </si>
+  <si>
+    <t>├── _layouts</t>
+  </si>
+  <si>
+    <t>├── _posts</t>
+  </si>
+  <si>
+    <t>├── _site</t>
+  </si>
+  <si>
+    <t>├── about.markdown</t>
+  </si>
+  <si>
+    <t>├── assets</t>
+  </si>
+  <si>
+    <t>├── google5fc4ee7c715c55f5.html</t>
+  </si>
+  <si>
+    <t>└── wiki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ├── Beyond_-_Conspiracy_-_2004_-_64k_intro.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ├── Demo.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ├── changelogs.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ├── customize.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ├── example-page.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ├── examples.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ├── extensionless</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ├── main_page.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ├── press.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ├── theme-default.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ├── theme-github.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ├── theme-lux.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    └── theme-united.md</t>
+  </si>
+  <si>
+    <t>│   ├── drassil</t>
+  </si>
+  <si>
+    <t>│   │   ├── comments.html</t>
+  </si>
+  <si>
+    <t>│   │   ├── head.html</t>
+  </si>
+  <si>
+    <t>│   │   └── sidebar.html</t>
+  </si>
+  <si>
+    <t>│   ├── git-wiki</t>
+  </si>
+  <si>
+    <t>│   │   ├── components</t>
+  </si>
+  <si>
+    <t>│   │   │   ├── action_btn</t>
+  </si>
+  <si>
+    <t>│   │   │   │   ├── downloads.html</t>
+  </si>
+  <si>
+    <t>│   │   │   │   └── page_actions.html</t>
+  </si>
+  <si>
+    <t>│   │   │   ├── copyrights</t>
+  </si>
+  <si>
+    <t>│   │   │   │   └── copyrights.html</t>
+  </si>
+  <si>
+    <t>│   │   │   ├── lists</t>
+  </si>
+  <si>
+    <t>│   │   │   │   ├── page-list.html</t>
+  </si>
+  <si>
+    <t>│   │   │   │   └── post-list.html</t>
+  </si>
+  <si>
+    <t>│   │   │   ├── logo</t>
+  </si>
+  <si>
+    <t>│   │   │   │   └── logo.html</t>
+  </si>
+  <si>
+    <t>│   │   │   ├── search</t>
+  </si>
+  <si>
+    <t>│   │   │   │   ├── index.html</t>
+  </si>
+  <si>
+    <t>│   │   │   │   ├── se_github.html</t>
+  </si>
+  <si>
+    <t>│   │   │   │   ├── se_google.html</t>
+  </si>
+  <si>
+    <t>│   │   │   │   ├── se_js.html</t>
+  </si>
+  <si>
+    <t>│   │   │   │   └── se_js_rss.html</t>
+  </si>
+  <si>
+    <t>│   │   │   └── toc</t>
+  </si>
+  <si>
+    <t>│   │   │       ├── toc-lib.html</t>
+  </si>
+  <si>
+    <t>│   │   │       └── toc.html</t>
+  </si>
+  <si>
+    <t>│   │   ├── defines</t>
+  </si>
+  <si>
+    <t>│   │   │   └── defines.html</t>
+  </si>
+  <si>
+    <t>│   │   └── sections</t>
+  </si>
+  <si>
+    <t>│   │       ├── content</t>
+  </si>
+  <si>
+    <t>│   │       │   ├── body.html</t>
+  </si>
+  <si>
+    <t>│   │       │   ├── content.html</t>
+  </si>
+  <si>
+    <t>│   │       │   └── wrapper.html</t>
+  </si>
+  <si>
+    <t>│   │       ├── footer</t>
+  </si>
+  <si>
+    <t>│   │       │   └── footer.html</t>
+  </si>
+  <si>
+    <t>│   │       ├── head</t>
+  </si>
+  <si>
+    <t>│   │       │   ├── head.html</t>
+  </si>
+  <si>
+    <t>│   │       │   ├── meta.html</t>
+  </si>
+  <si>
+    <t>│   │       │   ├── scripts.html</t>
+  </si>
+  <si>
+    <t>│   │       │   └── styles.html</t>
+  </si>
+  <si>
+    <t>│   │       ├── header</t>
+  </si>
+  <si>
+    <t>│   │       │   └── header.html</t>
+  </si>
+  <si>
+    <t>│   │       ├── tail</t>
+  </si>
+  <si>
+    <t>│   │       │   └── tail.html</t>
+  </si>
+  <si>
+    <t>│   │       └── tools</t>
+  </si>
+  <si>
+    <t>│   │           └── tools.html</t>
+  </si>
+  <si>
+    <t>│   └── sidebar.html</t>
+  </si>
+  <si>
+    <t>│   ├── default.html</t>
+  </si>
+  <si>
+    <t>│   ├── git-wiki-404.html</t>
+  </si>
+  <si>
+    <t>│   ├── git-wiki-blog.html</t>
+  </si>
+  <si>
+    <t>│   ├── git-wiki-bs-github.html</t>
+  </si>
+  <si>
+    <t>│   ├── git-wiki-bs-lux.html</t>
+  </si>
+  <si>
+    <t>│   ├── git-wiki-bs-united.html</t>
+  </si>
+  <si>
+    <t>│   ├── git-wiki-default.html</t>
+  </si>
+  <si>
+    <t>│   └── git-wiki-post.html</t>
+  </si>
+  <si>
+    <t>│   ├── 2018-12-17-blog-refactoring-v2.1.0.md</t>
+  </si>
+  <si>
+    <t>│   ├── 2018-12-17-first-post.md</t>
+  </si>
+  <si>
+    <t>│   ├── 2020-01-01-example-post.md</t>
+  </si>
+  <si>
+    <t>│   ├── 2020-1-7-version-2-5.md</t>
+  </si>
+  <si>
+    <t>│   └── 2025-04-28-welcome-to-jekyll.markdown</t>
+  </si>
+  <si>
+    <t>│   ├── fonts.scss</t>
+  </si>
+  <si>
+    <t>│   ├── git-wiki-style.scss</t>
+  </si>
+  <si>
+    <t>│   ├── rouge-github.scss</t>
+  </si>
+  <si>
+    <t>│   └── w3.scss</t>
+  </si>
+  <si>
+    <t>│   ├── 404.html</t>
+  </si>
+  <si>
+    <t>│   ├── CODE_OF_CONDUCT.md</t>
+  </si>
+  <si>
+    <t>│   ├── CONTRIBUTING.md</t>
+  </si>
+  <si>
+    <t>│   ├── Demo.html</t>
+  </si>
+  <si>
+    <t>│   ├── Dockerfile</t>
+  </si>
+  <si>
+    <t>│   ├── LICENSE</t>
+  </si>
+  <si>
+    <t>│   ├── PULL_REQUEST_TEMPLATE.md</t>
+  </si>
+  <si>
+    <t>│   ├── README.md</t>
+  </si>
+  <si>
+    <t>│   ├── about</t>
+  </si>
+  <si>
+    <t>│   │   └── index.html</t>
+  </si>
+  <si>
+    <t>│   ├── assets</t>
+  </si>
+  <si>
+    <t>│   │   ├── blog</t>
+  </si>
+  <si>
+    <t>│   │   │   ├── index.html</t>
+  </si>
+  <si>
+    <t>│   │   │   └── posts</t>
+  </si>
+  <si>
+    <t>│   │   │       ├── 2018</t>
+  </si>
+  <si>
+    <t>│   │   │       │   └── 12</t>
+  </si>
+  <si>
+    <t>│   │   │       │       └── 17</t>
+  </si>
+  <si>
+    <t>│   │   │       │           ├── blog-refactoring-v2.1.0.html</t>
+  </si>
+  <si>
+    <t>│   │   │       │           └── first-post.html</t>
+  </si>
+  <si>
+    <t>│   │   │       ├── 2020</t>
+  </si>
+  <si>
+    <t>│   │   │       │   └── 01</t>
+  </si>
+  <si>
+    <t>│   │   │       │       ├── 01</t>
+  </si>
+  <si>
+    <t>│   │   │       │       │   └── example-post.html</t>
+  </si>
+  <si>
+    <t>│   │   │       │       └── 07</t>
+  </si>
+  <si>
+    <t>│   │   │       │           └── version-2-5.html</t>
+  </si>
+  <si>
+    <t>│   │   │       └── 2025</t>
+  </si>
+  <si>
+    <t>│   │   │           └── 04</t>
+  </si>
+  <si>
+    <t>│   │   │               └── 28</t>
+  </si>
+  <si>
+    <t>│   │   │                   └── welcome-to-jekyll.html</t>
+  </si>
+  <si>
+    <t>│   │   ├── css</t>
+  </si>
+  <si>
+    <t>│   │   │   ├── git-wiki-style.css</t>
+  </si>
+  <si>
+    <t>│   │   │   ├── github.css</t>
+  </si>
+  <si>
+    <t>│   │   │   └── style.css</t>
+  </si>
+  <si>
+    <t>│   │   ├── fonts</t>
+  </si>
+  <si>
+    <t>│   │   │   ├── Noto-Sans-700</t>
+  </si>
+  <si>
+    <t>│   │   │   │   ├── Noto-Sans-700.eot</t>
+  </si>
+  <si>
+    <t>│   │   │   │   ├── Noto-Sans-700.svg</t>
+  </si>
+  <si>
+    <t>│   │   │   │   ├── Noto-Sans-700.ttf</t>
+  </si>
+  <si>
+    <t>│   │   │   │   ├── Noto-Sans-700.woff</t>
+  </si>
+  <si>
+    <t>│   │   │   │   └── Noto-Sans-700.woff2</t>
+  </si>
+  <si>
+    <t>│   │   │   ├── Noto-Sans-700italic</t>
+  </si>
+  <si>
+    <t>│   │   │   │   ├── Noto-Sans-700italic.eot</t>
+  </si>
+  <si>
+    <t>│   │   │   │   ├── Noto-Sans-700italic.svg</t>
+  </si>
+  <si>
+    <t>│   │   │   │   ├── Noto-Sans-700italic.ttf</t>
+  </si>
+  <si>
+    <t>│   │   │   │   ├── Noto-Sans-700italic.woff</t>
+  </si>
+  <si>
+    <t>│   │   │   │   └── Noto-Sans-700italic.woff2</t>
+  </si>
+  <si>
+    <t>│   │   │   ├── Noto-Sans-italic</t>
+  </si>
+  <si>
+    <t>│   │   │   │   ├── Noto-Sans-italic.eot</t>
+  </si>
+  <si>
+    <t>│   │   │   │   ├── Noto-Sans-italic.svg</t>
+  </si>
+  <si>
+    <t>│   │   │   │   ├── Noto-Sans-italic.ttf</t>
+  </si>
+  <si>
+    <t>│   │   │   │   ├── Noto-Sans-italic.woff</t>
+  </si>
+  <si>
+    <t>│   │   │   │   └── Noto-Sans-italic.woff2</t>
+  </si>
+  <si>
+    <t>│   │   │   └── Noto-Sans-regular</t>
+  </si>
+  <si>
+    <t>│   │   │       ├── Noto-Sans-regular.eot</t>
+  </si>
+  <si>
+    <t>│   │   │       ├── Noto-Sans-regular.svg</t>
+  </si>
+  <si>
+    <t>│   │   │       ├── Noto-Sans-regular.ttf</t>
+  </si>
+  <si>
+    <t>│   │   │       ├── Noto-Sans-regular.woff</t>
+  </si>
+  <si>
+    <t>│   │   │       └── Noto-Sans-regular.woff2</t>
+  </si>
+  <si>
+    <t>│   │   ├── images</t>
+  </si>
+  <si>
+    <t>│   │   │   ├── 1200px-Wikipedia-logo-v2.svg_.png</t>
+  </si>
+  <si>
+    <t>│   │   │   ├── external-link-ltr-icon.png</t>
+  </si>
+  <si>
+    <t>│   │   │   └── external.svg</t>
+  </si>
+  <si>
+    <t>│   │   └── js</t>
+  </si>
+  <si>
+    <t>│   │       ├── checkLinks.js</t>
+  </si>
+  <si>
+    <t>│   │       ├── jquery.camelhunter.min.js</t>
+  </si>
+  <si>
+    <t>│   │       ├── scale.fix.js</t>
+  </si>
+  <si>
+    <t>│   │       ├── searchdata.js</t>
+  </si>
+  <si>
+    <t>│   │       └── simple-jekyll-search.min.js</t>
+  </si>
+  <si>
+    <t>│   ├── changelogs.html</t>
+  </si>
+  <si>
+    <t>│   ├── customize.html</t>
+  </si>
+  <si>
+    <t>│   ├── docker-compose.yml</t>
+  </si>
+  <si>
+    <t>│   ├── example-page.html</t>
+  </si>
+  <si>
+    <t>│   ├── examples.html</t>
+  </si>
+  <si>
+    <t>│   ├── feed.xml</t>
+  </si>
+  <si>
+    <t>│   ├── google5fc4ee7c715c55f5.html</t>
+  </si>
+  <si>
+    <t>│   ├── index.html</t>
+  </si>
+  <si>
+    <t>│   ├── main_page.html</t>
+  </si>
+  <si>
+    <t>│   ├── press.html</t>
+  </si>
+  <si>
+    <t>│   ├── redirects.json</t>
+  </si>
+  <si>
+    <t>│   ├── robots.txt</t>
+  </si>
+  <si>
+    <t>│   ├── sitemap.xml</t>
+  </si>
+  <si>
+    <t>│   ├── sitemap_full.xml</t>
+  </si>
+  <si>
+    <t>│   ├── sync-wiki.sh</t>
+  </si>
+  <si>
+    <t>│   ├── theme-default.html</t>
+  </si>
+  <si>
+    <t>│   ├── theme-github.html</t>
+  </si>
+  <si>
+    <t>│   ├── theme-lux.html</t>
+  </si>
+  <si>
+    <t>│   ├── theme-united.html</t>
+  </si>
+  <si>
+    <t>│   └── wiki</t>
+  </si>
+  <si>
+    <t>│       ├── Beyond_-_Conspiracy_-_2004_-_64k_intro.jpg</t>
+  </si>
+  <si>
+    <t>│       ├── Demo.md</t>
+  </si>
+  <si>
+    <t>│       ├── changelogs.md</t>
+  </si>
+  <si>
+    <t>│       ├── customize.md</t>
+  </si>
+  <si>
+    <t>│       ├── example-page.md</t>
+  </si>
+  <si>
+    <t>│       ├── examples.md</t>
+  </si>
+  <si>
+    <t>│       ├── extensionless</t>
+  </si>
+  <si>
+    <t>│       ├── press.md</t>
+  </si>
+  <si>
+    <t>│       └── theme-default.md</t>
+  </si>
+  <si>
+    <t>│   ├── blog</t>
+  </si>
+  <si>
+    <t>│   ├── css</t>
+  </si>
+  <si>
+    <t>│   │   ├── git-wiki-style.scss</t>
+  </si>
+  <si>
+    <t>│   │   └── github.css</t>
+  </si>
+  <si>
+    <t>│   ├── fonts</t>
+  </si>
+  <si>
+    <t>│   │   ├── Noto-Sans-700</t>
+  </si>
+  <si>
+    <t>│   │   │   ├── Noto-Sans-700.eot</t>
+  </si>
+  <si>
+    <t>│   │   │   ├── Noto-Sans-700.svg</t>
+  </si>
+  <si>
+    <t>│   │   │   ├── Noto-Sans-700.ttf</t>
+  </si>
+  <si>
+    <t>│   │   │   ├── Noto-Sans-700.woff</t>
+  </si>
+  <si>
+    <t>│   │   │   └── Noto-Sans-700.woff2</t>
+  </si>
+  <si>
+    <t>│   │   ├── Noto-Sans-700italic</t>
+  </si>
+  <si>
+    <t>│   │   │   ├── Noto-Sans-700italic.eot</t>
+  </si>
+  <si>
+    <t>│   │   │   ├── Noto-Sans-700italic.svg</t>
+  </si>
+  <si>
+    <t>│   │   │   ├── Noto-Sans-700italic.ttf</t>
+  </si>
+  <si>
+    <t>│   │   │   ├── Noto-Sans-700italic.woff</t>
+  </si>
+  <si>
+    <t>│   │   │   └── Noto-Sans-700italic.woff2</t>
+  </si>
+  <si>
+    <t>│   │   ├── Noto-Sans-italic</t>
+  </si>
+  <si>
+    <t>│   │   │   ├── Noto-Sans-italic.eot</t>
+  </si>
+  <si>
+    <t>│   │   │   ├── Noto-Sans-italic.svg</t>
+  </si>
+  <si>
+    <t>│   │   │   ├── Noto-Sans-italic.ttf</t>
+  </si>
+  <si>
+    <t>│   │   │   ├── Noto-Sans-italic.woff</t>
+  </si>
+  <si>
+    <t>│   │   │   └── Noto-Sans-italic.woff2</t>
+  </si>
+  <si>
+    <t>│   │   └── Noto-Sans-regular</t>
+  </si>
+  <si>
+    <t>│   │       ├── Noto-Sans-regular.eot</t>
+  </si>
+  <si>
+    <t>│   │       ├── Noto-Sans-regular.svg</t>
+  </si>
+  <si>
+    <t>│   │       ├── Noto-Sans-regular.ttf</t>
+  </si>
+  <si>
+    <t>│   │       ├── Noto-Sans-regular.woff</t>
+  </si>
+  <si>
+    <t>│   │       └── Noto-Sans-regular.woff2</t>
+  </si>
+  <si>
+    <t>│   ├── images</t>
+  </si>
+  <si>
+    <t>│   │   ├── 1200px-Wikipedia-logo-v2.svg_.png</t>
+  </si>
+  <si>
+    <t>│   │   ├── external-link-ltr-icon.png</t>
+  </si>
+  <si>
+    <t>│   │   └── external.svg</t>
+  </si>
+  <si>
+    <t>│   ├── js</t>
+  </si>
+  <si>
+    <t>│   │   ├── checkLinks.js</t>
+  </si>
+  <si>
+    <t>│   │   ├── jquery.camelhunter.min.js</t>
+  </si>
+  <si>
+    <t>│   │   ├── scale.fix.js</t>
+  </si>
+  <si>
+    <t>│   │   ├── searchdata.js</t>
+  </si>
+  <si>
+    <t>│   │   └── simple-jekyll-search.min.js</t>
+  </si>
+  <si>
+    <t>│   └── sitemap_full.xml</t>
+  </si>
+  <si>
+    <t>wagner-tdbax.github.io</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>再利用可能な部分のHTMLファイル（例: ヘッダーやフッター）。</t>
+  </si>
+  <si>
+    <t>ページのレイアウトテンプレートを保存します。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ブログ記事や投稿を保存するフォルダ。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画像やCSS、JavaScriptなどのアセットを保管します。</t>
+  </si>
+  <si>
+    <t>サイトが生成された後のHTMLファイルが保存されるフォルダ。（通常、自動生成されます。）</t>
+  </si>
+  <si>
+    <t>├── _sass</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CSSを拡張した言語のファイル（通常は.scssや.sass形式）を保存します。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>├── Gemfile</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>gem管理</t>
+    <rPh sb="3" eb="5">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>├── Gemfile.lock</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>gemインストール/バージョン記録</t>
+    <rPh sb="15" eb="17">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Jekyll設定、サイト基本設定</t>
+    <phoneticPr fontId="2"/>
+  </si>
   <si>
     <t>├── 404.html</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>404 Not Found</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>├── README.md</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>├── CODE_OF_CONDUCT.md</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>行動規範</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>├── CONTRIBUTING.md</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ガイドライン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>├── PULL_REQUEST_TEMPLATE.md</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Pull Request Template</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>├── LICENSE</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>利用規約</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>README</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>├── index.markdown</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>├── Dockerfile</t>
-  </si>
-  <si>
-    <t>├── Gemfile</t>
-  </si>
-  <si>
-    <t>├── Gemfile.lock</t>
-  </si>
-  <si>
-    <t>├── LICENSE</t>
-  </si>
-  <si>
-    <t>├── PULL_REQUEST_TEMPLATE.md</t>
-  </si>
-  <si>
-    <t>├── README.md</t>
-  </si>
-  <si>
-    <t>├── _config.yml</t>
-  </si>
-  <si>
-    <t>├── _config.yml.original</t>
-  </si>
-  <si>
-    <t>├── _includes</t>
-  </si>
-  <si>
-    <t>├── _layouts</t>
-  </si>
-  <si>
-    <t>├── _posts</t>
-  </si>
-  <si>
-    <t>├── _site</t>
-  </si>
-  <si>
-    <t>├── about.markdown</t>
-  </si>
-  <si>
-    <t>├── assets</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>├── sync-wiki.sh</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ローカルのWiki内容をリモートリポジトリと同期、最新の変更をプル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サイトトップページ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Dockerコンテナ構成</t>
+    <rPh sb="10" eb="12">
+      <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>├── docker-compose.yml</t>
-  </si>
-  <si>
-    <t>├── google5fc4ee7c715c55f5.html</t>
-  </si>
-  <si>
-    <t>├── index.markdown</t>
-  </si>
-  <si>
-    <t>├── sync-wiki.sh</t>
-  </si>
-  <si>
-    <t>└── wiki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    ├── Beyond_-_Conspiracy_-_2004_-_64k_intro.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    ├── Demo.md</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    ├── changelogs.md</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    ├── customize.md</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    ├── example-page.md</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    ├── examples.md</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    ├── extensionless</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    ├── main_page.md</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    ├── press.md</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    ├── theme-default.md</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    ├── theme-github.md</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    ├── theme-lux.md</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    └── theme-united.md</t>
-  </si>
-  <si>
-    <t>│   ├── drassil</t>
-  </si>
-  <si>
-    <t>│   │   ├── comments.html</t>
-  </si>
-  <si>
-    <t>│   │   ├── head.html</t>
-  </si>
-  <si>
-    <t>│   │   └── sidebar.html</t>
-  </si>
-  <si>
-    <t>│   ├── git-wiki</t>
-  </si>
-  <si>
-    <t>│   │   ├── components</t>
-  </si>
-  <si>
-    <t>│   │   │   ├── action_btn</t>
-  </si>
-  <si>
-    <t>│   │   │   │   ├── downloads.html</t>
-  </si>
-  <si>
-    <t>│   │   │   │   └── page_actions.html</t>
-  </si>
-  <si>
-    <t>│   │   │   ├── copyrights</t>
-  </si>
-  <si>
-    <t>│   │   │   │   └── copyrights.html</t>
-  </si>
-  <si>
-    <t>│   │   │   ├── lists</t>
-  </si>
-  <si>
-    <t>│   │   │   │   ├── page-list.html</t>
-  </si>
-  <si>
-    <t>│   │   │   │   └── post-list.html</t>
-  </si>
-  <si>
-    <t>│   │   │   ├── logo</t>
-  </si>
-  <si>
-    <t>│   │   │   │   └── logo.html</t>
-  </si>
-  <si>
-    <t>│   │   │   ├── search</t>
-  </si>
-  <si>
-    <t>│   │   │   │   ├── index.html</t>
-  </si>
-  <si>
-    <t>│   │   │   │   ├── se_github.html</t>
-  </si>
-  <si>
-    <t>│   │   │   │   ├── se_google.html</t>
-  </si>
-  <si>
-    <t>│   │   │   │   ├── se_js.html</t>
-  </si>
-  <si>
-    <t>│   │   │   │   └── se_js_rss.html</t>
-  </si>
-  <si>
-    <t>│   │   │   └── toc</t>
-  </si>
-  <si>
-    <t>│   │   │       ├── toc-lib.html</t>
-  </si>
-  <si>
-    <t>│   │   │       └── toc.html</t>
-  </si>
-  <si>
-    <t>│   │   ├── defines</t>
-  </si>
-  <si>
-    <t>│   │   │   └── defines.html</t>
-  </si>
-  <si>
-    <t>│   │   └── sections</t>
-  </si>
-  <si>
-    <t>│   │       ├── content</t>
-  </si>
-  <si>
-    <t>│   │       │   ├── body.html</t>
-  </si>
-  <si>
-    <t>│   │       │   ├── content.html</t>
-  </si>
-  <si>
-    <t>│   │       │   └── wrapper.html</t>
-  </si>
-  <si>
-    <t>│   │       ├── footer</t>
-  </si>
-  <si>
-    <t>│   │       │   └── footer.html</t>
-  </si>
-  <si>
-    <t>│   │       ├── head</t>
-  </si>
-  <si>
-    <t>│   │       │   ├── head.html</t>
-  </si>
-  <si>
-    <t>│   │       │   ├── meta.html</t>
-  </si>
-  <si>
-    <t>│   │       │   ├── scripts.html</t>
-  </si>
-  <si>
-    <t>│   │       │   └── styles.html</t>
-  </si>
-  <si>
-    <t>│   │       ├── header</t>
-  </si>
-  <si>
-    <t>│   │       │   └── header.html</t>
-  </si>
-  <si>
-    <t>│   │       ├── tail</t>
-  </si>
-  <si>
-    <t>│   │       │   └── tail.html</t>
-  </si>
-  <si>
-    <t>│   │       └── tools</t>
-  </si>
-  <si>
-    <t>│   │           └── tools.html</t>
-  </si>
-  <si>
-    <t>│   └── sidebar.html</t>
-  </si>
-  <si>
-    <t>│   ├── default.html</t>
-  </si>
-  <si>
-    <t>│   ├── git-wiki-404.html</t>
-  </si>
-  <si>
-    <t>│   ├── git-wiki-blog.html</t>
-  </si>
-  <si>
-    <t>│   ├── git-wiki-bs-github.html</t>
-  </si>
-  <si>
-    <t>│   ├── git-wiki-bs-lux.html</t>
-  </si>
-  <si>
-    <t>│   ├── git-wiki-bs-united.html</t>
-  </si>
-  <si>
-    <t>│   ├── git-wiki-default.html</t>
-  </si>
-  <si>
-    <t>│   └── git-wiki-post.html</t>
-  </si>
-  <si>
-    <t>│   ├── 2018-12-17-blog-refactoring-v2.1.0.md</t>
-  </si>
-  <si>
-    <t>│   ├── 2018-12-17-first-post.md</t>
-  </si>
-  <si>
-    <t>│   ├── 2020-01-01-example-post.md</t>
-  </si>
-  <si>
-    <t>│   ├── 2020-1-7-version-2-5.md</t>
-  </si>
-  <si>
-    <t>│   └── 2025-04-28-welcome-to-jekyll.markdown</t>
-  </si>
-  <si>
-    <t>│   ├── fonts.scss</t>
-  </si>
-  <si>
-    <t>│   ├── git-wiki-style.scss</t>
-  </si>
-  <si>
-    <t>│   ├── rouge-github.scss</t>
-  </si>
-  <si>
-    <t>│   └── w3.scss</t>
-  </si>
-  <si>
-    <t>│   ├── 404.html</t>
-  </si>
-  <si>
-    <t>│   ├── CODE_OF_CONDUCT.md</t>
-  </si>
-  <si>
-    <t>│   ├── CONTRIBUTING.md</t>
-  </si>
-  <si>
-    <t>│   ├── Demo.html</t>
-  </si>
-  <si>
-    <t>│   ├── Dockerfile</t>
-  </si>
-  <si>
-    <t>│   ├── LICENSE</t>
-  </si>
-  <si>
-    <t>│   ├── PULL_REQUEST_TEMPLATE.md</t>
-  </si>
-  <si>
-    <t>│   ├── README.md</t>
-  </si>
-  <si>
-    <t>│   ├── about</t>
-  </si>
-  <si>
-    <t>│   │   └── index.html</t>
-  </si>
-  <si>
-    <t>│   ├── assets</t>
-  </si>
-  <si>
-    <t>│   │   ├── blog</t>
-  </si>
-  <si>
-    <t>│   │   │   ├── index.html</t>
-  </si>
-  <si>
-    <t>│   │   │   └── posts</t>
-  </si>
-  <si>
-    <t>│   │   │       ├── 2018</t>
-  </si>
-  <si>
-    <t>│   │   │       │   └── 12</t>
-  </si>
-  <si>
-    <t>│   │   │       │       └── 17</t>
-  </si>
-  <si>
-    <t>│   │   │       │           ├── blog-refactoring-v2.1.0.html</t>
-  </si>
-  <si>
-    <t>│   │   │       │           └── first-post.html</t>
-  </si>
-  <si>
-    <t>│   │   │       ├── 2020</t>
-  </si>
-  <si>
-    <t>│   │   │       │   └── 01</t>
-  </si>
-  <si>
-    <t>│   │   │       │       ├── 01</t>
-  </si>
-  <si>
-    <t>│   │   │       │       │   └── example-post.html</t>
-  </si>
-  <si>
-    <t>│   │   │       │       └── 07</t>
-  </si>
-  <si>
-    <t>│   │   │       │           └── version-2-5.html</t>
-  </si>
-  <si>
-    <t>│   │   │       └── 2025</t>
-  </si>
-  <si>
-    <t>│   │   │           └── 04</t>
-  </si>
-  <si>
-    <t>│   │   │               └── 28</t>
-  </si>
-  <si>
-    <t>│   │   │                   └── welcome-to-jekyll.html</t>
-  </si>
-  <si>
-    <t>│   │   ├── css</t>
-  </si>
-  <si>
-    <t>│   │   │   ├── git-wiki-style.css</t>
-  </si>
-  <si>
-    <t>│   │   │   ├── github.css</t>
-  </si>
-  <si>
-    <t>│   │   │   └── style.css</t>
-  </si>
-  <si>
-    <t>│   │   ├── fonts</t>
-  </si>
-  <si>
-    <t>│   │   │   ├── Noto-Sans-700</t>
-  </si>
-  <si>
-    <t>│   │   │   │   ├── Noto-Sans-700.eot</t>
-  </si>
-  <si>
-    <t>│   │   │   │   ├── Noto-Sans-700.svg</t>
-  </si>
-  <si>
-    <t>│   │   │   │   ├── Noto-Sans-700.ttf</t>
-  </si>
-  <si>
-    <t>│   │   │   │   ├── Noto-Sans-700.woff</t>
-  </si>
-  <si>
-    <t>│   │   │   │   └── Noto-Sans-700.woff2</t>
-  </si>
-  <si>
-    <t>│   │   │   ├── Noto-Sans-700italic</t>
-  </si>
-  <si>
-    <t>│   │   │   │   ├── Noto-Sans-700italic.eot</t>
-  </si>
-  <si>
-    <t>│   │   │   │   ├── Noto-Sans-700italic.svg</t>
-  </si>
-  <si>
-    <t>│   │   │   │   ├── Noto-Sans-700italic.ttf</t>
-  </si>
-  <si>
-    <t>│   │   │   │   ├── Noto-Sans-700italic.woff</t>
-  </si>
-  <si>
-    <t>│   │   │   │   └── Noto-Sans-700italic.woff2</t>
-  </si>
-  <si>
-    <t>│   │   │   ├── Noto-Sans-italic</t>
-  </si>
-  <si>
-    <t>│   │   │   │   ├── Noto-Sans-italic.eot</t>
-  </si>
-  <si>
-    <t>│   │   │   │   ├── Noto-Sans-italic.svg</t>
-  </si>
-  <si>
-    <t>│   │   │   │   ├── Noto-Sans-italic.ttf</t>
-  </si>
-  <si>
-    <t>│   │   │   │   ├── Noto-Sans-italic.woff</t>
-  </si>
-  <si>
-    <t>│   │   │   │   └── Noto-Sans-italic.woff2</t>
-  </si>
-  <si>
-    <t>│   │   │   └── Noto-Sans-regular</t>
-  </si>
-  <si>
-    <t>│   │   │       ├── Noto-Sans-regular.eot</t>
-  </si>
-  <si>
-    <t>│   │   │       ├── Noto-Sans-regular.svg</t>
-  </si>
-  <si>
-    <t>│   │   │       ├── Noto-Sans-regular.ttf</t>
-  </si>
-  <si>
-    <t>│   │   │       ├── Noto-Sans-regular.woff</t>
-  </si>
-  <si>
-    <t>│   │   │       └── Noto-Sans-regular.woff2</t>
-  </si>
-  <si>
-    <t>│   │   ├── images</t>
-  </si>
-  <si>
-    <t>│   │   │   ├── 1200px-Wikipedia-logo-v2.svg_.png</t>
-  </si>
-  <si>
-    <t>│   │   │   ├── external-link-ltr-icon.png</t>
-  </si>
-  <si>
-    <t>│   │   │   └── external.svg</t>
-  </si>
-  <si>
-    <t>│   │   └── js</t>
-  </si>
-  <si>
-    <t>│   │       ├── checkLinks.js</t>
-  </si>
-  <si>
-    <t>│   │       ├── jquery.camelhunter.min.js</t>
-  </si>
-  <si>
-    <t>│   │       ├── scale.fix.js</t>
-  </si>
-  <si>
-    <t>│   │       ├── searchdata.js</t>
-  </si>
-  <si>
-    <t>│   │       └── simple-jekyll-search.min.js</t>
-  </si>
-  <si>
-    <t>│   ├── changelogs.html</t>
-  </si>
-  <si>
-    <t>│   ├── customize.html</t>
-  </si>
-  <si>
-    <t>│   ├── docker-compose.yml</t>
-  </si>
-  <si>
-    <t>│   ├── example-page.html</t>
-  </si>
-  <si>
-    <t>│   ├── examples.html</t>
-  </si>
-  <si>
-    <t>│   ├── feed.xml</t>
-  </si>
-  <si>
-    <t>│   ├── google5fc4ee7c715c55f5.html</t>
-  </si>
-  <si>
-    <t>│   ├── index.html</t>
-  </si>
-  <si>
-    <t>│   ├── main_page.html</t>
-  </si>
-  <si>
-    <t>│   ├── press.html</t>
-  </si>
-  <si>
-    <t>│   ├── redirects.json</t>
-  </si>
-  <si>
-    <t>│   ├── robots.txt</t>
-  </si>
-  <si>
-    <t>│   ├── sitemap.xml</t>
-  </si>
-  <si>
-    <t>│   ├── sitemap_full.xml</t>
-  </si>
-  <si>
-    <t>│   ├── sync-wiki.sh</t>
-  </si>
-  <si>
-    <t>│   ├── theme-default.html</t>
-  </si>
-  <si>
-    <t>│   ├── theme-github.html</t>
-  </si>
-  <si>
-    <t>│   ├── theme-lux.html</t>
-  </si>
-  <si>
-    <t>│   ├── theme-united.html</t>
-  </si>
-  <si>
-    <t>│   └── wiki</t>
-  </si>
-  <si>
-    <t>│       ├── Beyond_-_Conspiracy_-_2004_-_64k_intro.jpg</t>
-  </si>
-  <si>
-    <t>│       ├── Demo.md</t>
-  </si>
-  <si>
-    <t>│       ├── changelogs.md</t>
-  </si>
-  <si>
-    <t>│       ├── customize.md</t>
-  </si>
-  <si>
-    <t>│       ├── example-page.md</t>
-  </si>
-  <si>
-    <t>│       ├── examples.md</t>
-  </si>
-  <si>
-    <t>│       ├── extensionless</t>
-  </si>
-  <si>
-    <t>│       ├── press.md</t>
-  </si>
-  <si>
-    <t>│       └── theme-default.md</t>
-  </si>
-  <si>
-    <t>│   ├── blog</t>
-  </si>
-  <si>
-    <t>│   ├── css</t>
-  </si>
-  <si>
-    <t>│   │   ├── git-wiki-style.scss</t>
-  </si>
-  <si>
-    <t>│   │   └── github.css</t>
-  </si>
-  <si>
-    <t>│   ├── fonts</t>
-  </si>
-  <si>
-    <t>│   │   ├── Noto-Sans-700</t>
-  </si>
-  <si>
-    <t>│   │   │   ├── Noto-Sans-700.eot</t>
-  </si>
-  <si>
-    <t>│   │   │   ├── Noto-Sans-700.svg</t>
-  </si>
-  <si>
-    <t>│   │   │   ├── Noto-Sans-700.ttf</t>
-  </si>
-  <si>
-    <t>│   │   │   ├── Noto-Sans-700.woff</t>
-  </si>
-  <si>
-    <t>│   │   │   └── Noto-Sans-700.woff2</t>
-  </si>
-  <si>
-    <t>│   │   ├── Noto-Sans-700italic</t>
-  </si>
-  <si>
-    <t>│   │   │   ├── Noto-Sans-700italic.eot</t>
-  </si>
-  <si>
-    <t>│   │   │   ├── Noto-Sans-700italic.svg</t>
-  </si>
-  <si>
-    <t>│   │   │   ├── Noto-Sans-700italic.ttf</t>
-  </si>
-  <si>
-    <t>│   │   │   ├── Noto-Sans-700italic.woff</t>
-  </si>
-  <si>
-    <t>│   │   │   └── Noto-Sans-700italic.woff2</t>
-  </si>
-  <si>
-    <t>│   │   ├── Noto-Sans-italic</t>
-  </si>
-  <si>
-    <t>│   │   │   ├── Noto-Sans-italic.eot</t>
-  </si>
-  <si>
-    <t>│   │   │   ├── Noto-Sans-italic.svg</t>
-  </si>
-  <si>
-    <t>│   │   │   ├── Noto-Sans-italic.ttf</t>
-  </si>
-  <si>
-    <t>│   │   │   ├── Noto-Sans-italic.woff</t>
-  </si>
-  <si>
-    <t>│   │   │   └── Noto-Sans-italic.woff2</t>
-  </si>
-  <si>
-    <t>│   │   └── Noto-Sans-regular</t>
-  </si>
-  <si>
-    <t>│   │       ├── Noto-Sans-regular.eot</t>
-  </si>
-  <si>
-    <t>│   │       ├── Noto-Sans-regular.svg</t>
-  </si>
-  <si>
-    <t>│   │       ├── Noto-Sans-regular.ttf</t>
-  </si>
-  <si>
-    <t>│   │       ├── Noto-Sans-regular.woff</t>
-  </si>
-  <si>
-    <t>│   │       └── Noto-Sans-regular.woff2</t>
-  </si>
-  <si>
-    <t>│   ├── images</t>
-  </si>
-  <si>
-    <t>│   │   ├── 1200px-Wikipedia-logo-v2.svg_.png</t>
-  </si>
-  <si>
-    <t>│   │   ├── external-link-ltr-icon.png</t>
-  </si>
-  <si>
-    <t>│   │   └── external.svg</t>
-  </si>
-  <si>
-    <t>│   ├── js</t>
-  </si>
-  <si>
-    <t>│   │   ├── checkLinks.js</t>
-  </si>
-  <si>
-    <t>│   │   ├── jquery.camelhunter.min.js</t>
-  </si>
-  <si>
-    <t>│   │   ├── scale.fix.js</t>
-  </si>
-  <si>
-    <t>│   │   ├── searchdata.js</t>
-  </si>
-  <si>
-    <t>│   │   └── simple-jekyll-search.min.js</t>
-  </si>
-  <si>
-    <t>│   └── sitemap_full.xml</t>
-  </si>
-  <si>
-    <t>wagner-tdbax.github.io</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Jekyll設定ファイル。サイトの基本設定を記述します。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>サイトのトップページです。</t>
-  </si>
-  <si>
-    <t>再利用可能な部分のHTMLファイル（例: ヘッダーやフッター）。</t>
-  </si>
-  <si>
-    <t>ページのレイアウトテンプレートを保存します。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ブログ記事や投稿を保存するフォルダ。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>画像やCSS、JavaScriptなどのアセットを保管します。</t>
-  </si>
-  <si>
-    <t>サイトが生成された後のHTMLファイルが保存されるフォルダ。（通常、自動生成されます。）</t>
-  </si>
-  <si>
-    <t>├── _sass</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CSSを拡張した言語のファイル（通常は.scssや.sass形式）を保存します。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DockerCompose設定</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1101,1233 +1167,1267 @@
   <dimension ref="B3:C241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="2.625" style="1" customWidth="1"/>
     <col min="2" max="3" width="60.625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="2.625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:3">
       <c r="B3" s="1" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>245</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>239</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>241</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>243</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>231</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>233</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C10" s="1" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" s="1" t="s">
-        <v>2</v>
+        <v>236</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" s="1" t="s">
-        <v>7</v>
+        <v>238</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>248</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="1" t="s">
-        <v>20</v>
+        <v>250</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="1" t="s">
-        <v>3</v>
+        <v>249</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="1" t="s">
-        <v>17</v>
+        <v>254</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="1" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="1" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="1" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="1" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="1" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" s="1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="1" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" s="1" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" s="1" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" s="1" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" s="1" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="1" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="65" spans="2:3">
       <c r="B65" s="1" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="2:3">
       <c r="B66" s="1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="2:3">
       <c r="B67" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
     </row>
     <row r="68" spans="2:3">
       <c r="B68" s="1" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69" spans="2:3">
       <c r="B69" s="1" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70" spans="2:3">
       <c r="B70" s="1" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71" spans="2:3">
       <c r="B71" s="1" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="2:3">
       <c r="B72" s="1" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73" spans="2:3">
       <c r="B73" s="1" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74" spans="2:3">
       <c r="B74" s="1" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75" spans="2:3">
       <c r="B75" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76" spans="2:3">
       <c r="B76" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
     </row>
     <row r="77" spans="2:3">
       <c r="B77" s="1" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="78" spans="2:3">
       <c r="B78" s="1" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="79" spans="2:3">
       <c r="B79" s="1" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="80" spans="2:3">
       <c r="B80" s="1" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81" spans="2:3">
       <c r="B81" s="1" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="82" spans="2:3">
       <c r="B82" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
     </row>
     <row r="83" spans="2:3">
       <c r="B83" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="84" spans="2:3">
       <c r="B84" s="1" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="85" spans="2:3">
       <c r="B85" s="1" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="86" spans="2:3">
       <c r="B86" s="1" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="87" spans="2:3">
       <c r="B87" s="1" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="88" spans="2:3">
       <c r="B88" s="1" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="89" spans="2:3">
       <c r="B89" s="1" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="90" spans="2:3">
       <c r="B90" s="1" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="91" spans="2:3">
       <c r="B91" s="1" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="92" spans="2:3">
       <c r="B92" s="1" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="93" spans="2:3">
       <c r="B93" s="1" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="94" spans="2:3">
       <c r="B94" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="95" spans="2:3">
       <c r="B95" s="1" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="96" spans="2:3">
       <c r="B96" s="1" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="97" spans="2:2">
       <c r="B97" s="1" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="98" spans="2:2">
       <c r="B98" s="1" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="99" spans="2:2">
       <c r="B99" s="1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="100" spans="2:2">
       <c r="B100" s="1" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="101" spans="2:2">
       <c r="B101" s="1" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="102" spans="2:2">
       <c r="B102" s="1" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="103" spans="2:2">
       <c r="B103" s="1" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104" s="1" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="105" spans="2:2">
       <c r="B105" s="1" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="106" spans="2:2">
       <c r="B106" s="1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="107" spans="2:2">
       <c r="B107" s="1" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="108" spans="2:2">
       <c r="B108" s="1" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="109" spans="2:2">
       <c r="B109" s="1" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="110" spans="2:2">
       <c r="B110" s="1" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="111" spans="2:2">
       <c r="B111" s="1" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="112" spans="2:2">
       <c r="B112" s="1" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" s="1" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="114" spans="2:2">
       <c r="B114" s="1" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="115" spans="2:2">
       <c r="B115" s="1" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="116" spans="2:2">
       <c r="B116" s="1" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="117" spans="2:2">
       <c r="B117" s="1" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="118" spans="2:2">
       <c r="B118" s="1" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="119" spans="2:2">
       <c r="B119" s="1" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="120" spans="2:2">
       <c r="B120" s="1" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="121" spans="2:2">
       <c r="B121" s="1" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="122" spans="2:2">
       <c r="B122" s="1" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="123" spans="2:2">
       <c r="B123" s="1" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="124" spans="2:2">
       <c r="B124" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="125" spans="2:2">
       <c r="B125" s="1" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="126" spans="2:2">
       <c r="B126" s="1" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="127" spans="2:2">
       <c r="B127" s="1" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="128" spans="2:2">
       <c r="B128" s="1" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="129" spans="2:2">
       <c r="B129" s="1" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="130" spans="2:2">
       <c r="B130" s="1" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="131" spans="2:2">
       <c r="B131" s="1" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="132" spans="2:2">
       <c r="B132" s="1" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="133" spans="2:2">
       <c r="B133" s="1" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="134" spans="2:2">
       <c r="B134" s="1" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="135" spans="2:2">
       <c r="B135" s="1" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="136" spans="2:2">
       <c r="B136" s="1" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="137" spans="2:2">
       <c r="B137" s="1" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="138" spans="2:2">
       <c r="B138" s="1" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="139" spans="2:2">
       <c r="B139" s="1" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="140" spans="2:2">
       <c r="B140" s="1" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="141" spans="2:2">
       <c r="B141" s="1" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="142" spans="2:2">
       <c r="B142" s="1" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="143" spans="2:2">
       <c r="B143" s="1" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="144" spans="2:2">
       <c r="B144" s="1" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="145" spans="2:2">
       <c r="B145" s="1" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="146" spans="2:2">
       <c r="B146" s="1" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="147" spans="2:2">
       <c r="B147" s="1" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="148" spans="2:2">
       <c r="B148" s="1" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="149" spans="2:2">
       <c r="B149" s="1" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="150" spans="2:2">
       <c r="B150" s="1" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="151" spans="2:2">
       <c r="B151" s="1" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="152" spans="2:2">
       <c r="B152" s="1" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="153" spans="2:2">
       <c r="B153" s="1" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="154" spans="2:2">
       <c r="B154" s="1" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="155" spans="2:2">
       <c r="B155" s="1" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="156" spans="2:2">
       <c r="B156" s="1" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="157" spans="2:2">
       <c r="B157" s="1" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="158" spans="2:2">
       <c r="B158" s="1" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="159" spans="2:2">
       <c r="B159" s="1" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="160" spans="2:2">
       <c r="B160" s="1" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="161" spans="2:2">
       <c r="B161" s="1" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="162" spans="2:2">
       <c r="B162" s="1" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="163" spans="2:2">
       <c r="B163" s="1" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="164" spans="2:2">
       <c r="B164" s="1" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="165" spans="2:2">
       <c r="B165" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="166" spans="2:2">
       <c r="B166" s="1" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="167" spans="2:2">
       <c r="B167" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="168" spans="2:2">
       <c r="B168" s="1" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="169" spans="2:2">
       <c r="B169" s="1" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="170" spans="2:2">
       <c r="B170" s="1" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="171" spans="2:2">
       <c r="B171" s="1" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="172" spans="2:2">
       <c r="B172" s="1" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="173" spans="2:2">
       <c r="B173" s="1" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="174" spans="2:2">
       <c r="B174" s="1" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="175" spans="2:2">
       <c r="B175" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="176" spans="2:2">
       <c r="B176" s="1" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="177" spans="2:3">
       <c r="B177" s="1" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="178" spans="2:3">
       <c r="B178" s="1" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="179" spans="2:3">
       <c r="B179" s="1" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
     <row r="180" spans="2:3">
       <c r="B180" s="1" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
     </row>
     <row r="181" spans="2:3">
       <c r="B181" s="1" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="182" spans="2:3">
       <c r="B182" s="1" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="183" spans="2:3">
       <c r="B183" s="1" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="184" spans="2:3">
       <c r="B184" s="1" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="185" spans="2:3">
       <c r="B185" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
     </row>
     <row r="186" spans="2:3">
       <c r="B186" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="187" spans="2:3">
       <c r="B187" s="1" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="188" spans="2:3">
       <c r="B188" s="1" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="189" spans="2:3">
       <c r="B189" s="1" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="190" spans="2:3">
       <c r="B190" s="1" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="191" spans="2:3">
       <c r="B191" s="1" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
     </row>
     <row r="192" spans="2:3">
       <c r="B192" s="1" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="193" spans="2:2">
       <c r="B193" s="1" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="194" spans="2:2">
       <c r="B194" s="1" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
     </row>
     <row r="195" spans="2:2">
       <c r="B195" s="1" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
     </row>
     <row r="196" spans="2:2">
       <c r="B196" s="1" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
     </row>
     <row r="197" spans="2:2">
       <c r="B197" s="1" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="198" spans="2:2">
       <c r="B198" s="1" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="199" spans="2:2">
       <c r="B199" s="1" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
     </row>
     <row r="200" spans="2:2">
       <c r="B200" s="1" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="201" spans="2:2">
       <c r="B201" s="1" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="202" spans="2:2">
       <c r="B202" s="1" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
     </row>
     <row r="203" spans="2:2">
       <c r="B203" s="1" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
     </row>
     <row r="204" spans="2:2">
       <c r="B204" s="1" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
     </row>
     <row r="205" spans="2:2">
       <c r="B205" s="1" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
     </row>
     <row r="206" spans="2:2">
       <c r="B206" s="1" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="207" spans="2:2">
       <c r="B207" s="1" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
     </row>
     <row r="208" spans="2:2">
       <c r="B208" s="1" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="209" spans="2:2">
       <c r="B209" s="1" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
     </row>
     <row r="210" spans="2:2">
       <c r="B210" s="1" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
     </row>
     <row r="211" spans="2:2">
       <c r="B211" s="1" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
     </row>
     <row r="212" spans="2:2">
       <c r="B212" s="1" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
     </row>
     <row r="213" spans="2:2">
       <c r="B213" s="1" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
     </row>
     <row r="214" spans="2:2">
       <c r="B214" s="1" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
     </row>
     <row r="215" spans="2:2">
       <c r="B215" s="1" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
     </row>
     <row r="216" spans="2:2">
       <c r="B216" s="1" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
     </row>
     <row r="217" spans="2:2">
       <c r="B217" s="1" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
     </row>
     <row r="218" spans="2:2">
       <c r="B218" s="1" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
     </row>
     <row r="219" spans="2:2">
       <c r="B219" s="1" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
     </row>
     <row r="220" spans="2:2">
       <c r="B220" s="1" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
     </row>
     <row r="221" spans="2:2">
       <c r="B221" s="1" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
     </row>
     <row r="222" spans="2:2">
       <c r="B222" s="1" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
     </row>
     <row r="223" spans="2:2">
       <c r="B223" s="1" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
     <row r="224" spans="2:2">
       <c r="B224" s="1" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="225" spans="2:2">
       <c r="B225" s="1" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
     </row>
     <row r="226" spans="2:2">
       <c r="B226" s="1" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
     </row>
     <row r="227" spans="2:2">
       <c r="B227" s="1" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
     </row>
     <row r="228" spans="2:2">
       <c r="B228" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="229" spans="2:2">
       <c r="B229" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="230" spans="2:2">
       <c r="B230" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="231" spans="2:2">
       <c r="B231" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="232" spans="2:2">
       <c r="B232" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="233" spans="2:2">
       <c r="B233" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="234" spans="2:2">
       <c r="B234" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="235" spans="2:2">
       <c r="B235" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="236" spans="2:2">
       <c r="B236" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="237" spans="2:2">
       <c r="B237" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="238" spans="2:2">
       <c r="B238" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="239" spans="2:2">
       <c r="B239" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="240" spans="2:2">
       <c r="B240" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="241" spans="2:2">
       <c r="B241" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
